--- a/static/database/Tech_Stack.xlsx
+++ b/static/database/Tech_Stack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JamalNoahChesterMorris\OpenSource\WebPortfolio\static\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A5CBC-6676-4657-A50E-D2DC01522730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008B785-3461-4E3D-BF74-90837568E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D58F436-2EA9-4455-AB8E-F3BCCF2958DB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="stack" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">stack!$A$1:$D$11</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">stack!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Language</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>MindsDB</t>
+  </si>
+  <si>
+    <t>https://fontjoy.com/</t>
+  </si>
+  <si>
+    <t>Software: Font Picking</t>
+  </si>
+  <si>
+    <t>Font</t>
   </si>
 </sst>
 </file>
@@ -212,10 +221,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}" name="Query15" displayName="Query15" ref="A1:D11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-    <sortCondition ref="A1:A11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}" name="Query15" displayName="Query15" ref="A1:D12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D12" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
+    <sortCondition ref="A1:A12"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{709C8F7E-A669-4935-A148-505EA90E9645}" uniqueName="1" name="Language" queryTableFieldId="1"/>
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D1751B-C395-49E1-B892-E3E84165DBEA}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,16 +661,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,26 +678,40 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
     </row>
